--- a/realme/OCTOBER/11.10.2021/realme Bank Statement OCTOBER 2021.xlsx
+++ b/realme/OCTOBER/11.10.2021/realme Bank Statement OCTOBER 2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OCT 2021" sheetId="7" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
   <si>
     <t>Date</t>
   </si>
@@ -2440,6 +2440,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2477,12 +2483,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3972,67 +3972,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="270" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-      <c r="M1" s="268"/>
-      <c r="N1" s="268"/>
-      <c r="O1" s="268"/>
-      <c r="P1" s="268"/>
-      <c r="Q1" s="268"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
     </row>
     <row r="2" spans="1:24" s="118" customFormat="1" ht="18">
-      <c r="A2" s="269" t="s">
+      <c r="A2" s="271" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="269"/>
-      <c r="O2" s="269"/>
-      <c r="P2" s="269"/>
-      <c r="Q2" s="269"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="271"/>
+      <c r="M2" s="271"/>
+      <c r="N2" s="271"/>
+      <c r="O2" s="271"/>
+      <c r="P2" s="271"/>
+      <c r="Q2" s="271"/>
     </row>
     <row r="3" spans="1:24" s="119" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="270" t="s">
+      <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="271"/>
-      <c r="C3" s="271"/>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="271"/>
-      <c r="J3" s="271"/>
-      <c r="K3" s="271"/>
-      <c r="L3" s="271"/>
-      <c r="M3" s="271"/>
-      <c r="N3" s="271"/>
-      <c r="O3" s="271"/>
-      <c r="P3" s="271"/>
-      <c r="Q3" s="272"/>
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="273"/>
+      <c r="K3" s="273"/>
+      <c r="L3" s="273"/>
+      <c r="M3" s="273"/>
+      <c r="N3" s="273"/>
+      <c r="O3" s="273"/>
+      <c r="P3" s="273"/>
+      <c r="Q3" s="274"/>
       <c r="S3" s="49"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4041,10 +4041,10 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="121" customFormat="1">
-      <c r="A4" s="273" t="s">
+      <c r="A4" s="275" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="275" t="s">
+      <c r="B4" s="277" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="264" t="s">
@@ -4080,13 +4080,13 @@
       <c r="M4" s="264" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="266" t="s">
+      <c r="N4" s="268" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="279" t="s">
+      <c r="O4" s="266" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="279" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="120" t="s">
@@ -4099,8 +4099,8 @@
       <c r="W4" s="123"/>
     </row>
     <row r="5" spans="1:24" s="121" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="274"/>
-      <c r="B5" s="276"/>
+      <c r="A5" s="276"/>
+      <c r="B5" s="278"/>
       <c r="C5" s="265"/>
       <c r="D5" s="265"/>
       <c r="E5" s="265"/>
@@ -4112,9 +4112,9 @@
       <c r="K5" s="265"/>
       <c r="L5" s="265"/>
       <c r="M5" s="265"/>
-      <c r="N5" s="267"/>
-      <c r="O5" s="280"/>
-      <c r="P5" s="278"/>
+      <c r="N5" s="269"/>
+      <c r="O5" s="267"/>
+      <c r="P5" s="280"/>
       <c r="Q5" s="125" t="s">
         <v>43</v>
       </c>
@@ -7084,12 +7084,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7103,6 +7097,12 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7114,8 +7114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9517,7 +9517,7 @@
       <c r="D36" s="298"/>
       <c r="E36" s="242">
         <f>F33-C113+K136</f>
-        <v>0</v>
+        <v>38960</v>
       </c>
       <c r="F36" s="237"/>
       <c r="G36" s="61"/>
@@ -9835,8 +9835,8 @@
       <c r="B41" s="213" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="222">
-        <v>38960</v>
+      <c r="C41" s="222" t="s">
+        <v>46</v>
       </c>
       <c r="D41" s="213" t="s">
         <v>57</v>
@@ -14534,7 +14534,7 @@
       <c r="B113" s="283"/>
       <c r="C113" s="236">
         <f>SUM(C37:C112)</f>
-        <v>431910</v>
+        <v>392950</v>
       </c>
       <c r="D113" s="235"/>
       <c r="F113" s="91"/>
@@ -14669,7 +14669,7 @@
       <c r="B115" s="285"/>
       <c r="C115" s="234">
         <f>C113+L136</f>
-        <v>431910</v>
+        <v>392950</v>
       </c>
       <c r="D115" s="233"/>
       <c r="F115" s="91"/>
@@ -17245,7 +17245,7 @@
   </sheetPr>
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
